--- a/modelagem/Resultados_2018 1ª abordagem/10. Outubro/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/10. Outubro/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,13 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.44004838902688</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.770839220781351</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.464254390615213</v>
+        <v>0.1214299631998923</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1281423222767616</v>
-      </c>
-      <c r="C3" t="n">
-        <v>196989077684224.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>376685744619519.9</v>
+        <v>0.05406244969980969</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.204677008652691</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.55003521044864</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.574716845541905</v>
+        <v>0.172052353635791</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.373012023692191</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.181144654741043</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.976371790882949</v>
+        <v>0.1190962832337418</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.920288198542704</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.660995298631981</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.288701228909511</v>
+        <v>0.1213040820474078</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.133141712477186</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7523902087894245</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5487988735765736</v>
+        <v>0.1540096237292772</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.670877904672245</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.20559238546357</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.126164011805467</v>
+        <v>0.08908706121663182</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.145541223789646</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.397089835985957</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.521628041396142</v>
+        <v>0.1949934957500265</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.245334563879953</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.046534141465294</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.995840240965263</v>
+        <v>0.05675493882210117</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.535059575049634</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.559841325856123</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.516501367727173</v>
+        <v>0.1161168386840751</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12255823396864.22</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7148083871743.774</v>
-      </c>
-      <c r="D12" t="n">
-        <v>655066734264319.9</v>
+        <v>0.01965626553235699</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.703753530334598</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6385091049216941</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.957404087047258</v>
+        <v>0.1553266476896915</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.310028541191331</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.542969600418443</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.405730137992717</v>
+        <v>0.1359339521985448</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.824919414442348</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8032261517890397</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7808701997067362</v>
+        <v>0.1027440102781249</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.034834409242392</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.070484867088574</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9964571301321868</v>
+        <v>0.1409848450377455</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6897521747107929</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9214037212986144</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.575428624326028</v>
+        <v>0.09465201147906059</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.594678755264729</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.005865003781245</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.690299768947082</v>
+        <v>0.1345722002282533</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.329302792867134</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.138451540497024</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.42939501278029</v>
+        <v>0.1703574057792943</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7358465266625862</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8650711343233042</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5555852100527189</v>
+        <v>0.187742916943199</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7071789708300472</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7436938696365902</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4262986866144207</v>
+        <v>0.1591412692946458</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.598811774891971</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.46002990571976</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.922270675270379</v>
+        <v>0.019951648180103</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.264553755829819</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.171296720806996</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.905096012686317</v>
+        <v>0.1557281095138348</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.399557125775412</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.291861428706158</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.316161492457803</v>
+        <v>0.08055305190125958</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8372667449067128</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8471852982631931</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8247707517608053</v>
+        <v>0.1764475464035491</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.687375695218967</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.691576045015081</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.795151812876392</v>
+        <v>0.1681723930990005</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.529704986353106</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9840768328655062</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5.797584864485026</v>
+        <v>0.2263578922496973</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.514823890158738</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.389350800384151</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.745101144542976</v>
+        <v>0.1738619346071759</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.865963094701462</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.660501562580104</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.996229274618476</v>
+        <v>0.07265860042073675</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.420254233482123</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.064995466308523</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.282494658339725</v>
+        <v>0.0868626350524048</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5352133774627351</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5783053893420045</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5972914209675677</v>
+        <v>0.1624678738959786</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9745273850301849</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.7299690900765418</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.8303652665436734</v>
+        <v>0.09300553928145465</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.196716654016021</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.6796012195194399</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.388923549189607</v>
+        <v>0.1426654574487307</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.346478547918165</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.806010133805316</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.251568331852522</v>
+        <v>0.08629991859014655</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17848776721989.29</v>
-      </c>
-      <c r="C35" t="n">
-        <v>787079546297229.8</v>
-      </c>
-      <c r="D35" t="n">
-        <v>392022709406551.1</v>
+        <v>0.1058315853542903</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.680904959857758</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.4781783966549171</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.6783542249012022</v>
+        <v>0.1241772796546741</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.473014912432107</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.524297307244252</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.903788905155962</v>
+        <v>0.2187776920340729</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.007339344768461</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.084077854191632</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.6375105603267508</v>
+        <v>0.09158390483049512</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485326880583627.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>202619028910865.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1047025994634986</v>
+        <v>0.1602377358312345</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.755207011149847</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.062223541828711</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.260071346242178</v>
+        <v>0.152483681844707</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.110848845782983</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5183584252745138</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.953291471121307</v>
+        <v>0.148933537588901</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.154857849055698</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.496994321393866</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.255470755011699</v>
+        <v>0.1128470535747704</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4893993348189887</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.3454752049555628</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.491237503282424</v>
+        <v>0.1683795405002924</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.555989631300507</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.611711285388767</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.85151467953092</v>
+        <v>0.2088838885303229</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.024216948730479</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5712803223269642</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.090770401462175</v>
+        <v>0.1290946076173116</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.680007803778591</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.184506755080026</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.577367248062708</v>
+        <v>0.1733760777319008</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.822264166646038</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.252356251968004</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.77031738832156</v>
+        <v>0.1846372085691839</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>148956751691834.8</v>
-      </c>
-      <c r="C48" t="n">
-        <v>171487872007931.4</v>
-      </c>
-      <c r="D48" t="n">
-        <v>327921920950737</v>
+        <v>0.05772481493851506</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6482068192533353</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.6567223310405662</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.6586382991676908</v>
+        <v>0.1652177634808925</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9856933027086189</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.19575351275096</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.045095947257146</v>
+        <v>0.153958816143183</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.173944145434121</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.115152522281185</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.614482607999264</v>
+        <v>0.01845346488733733</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.373788219737452</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.720468351465373</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.282835349498076</v>
+        <v>0.06865222044627903</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>385950930914583.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>143873532338067.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>275117327807793.1</v>
+        <v>0.1417481708867753</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>30.29850881094908</v>
-      </c>
-      <c r="C54" t="n">
-        <v>59.86968556302309</v>
-      </c>
-      <c r="D54" t="n">
-        <v>56.61452042758722</v>
+        <v>0.1615018363836783</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.737680428988202</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.106096696020177</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9236625345249057</v>
+        <v>0.1617029609085629</v>
       </c>
     </row>
   </sheetData>
